--- a/tools/excel/tisax/tisax-v6.0.3.xlsx
+++ b/tools/excel/tisax/tisax-v6.0.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\tisax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE56B11-D84C-4884-9845-9C80866BF440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A6C02F-1741-4519-A653-E4F8E4CE9847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="1572" windowWidth="17772" windowHeight="10272" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5980" yWindow="-16440" windowWidth="22870" windowHeight="12890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="476">
   <si>
     <t>type</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>Trusted Information Security Assessment Exchange</t>
   </si>
   <si>
     <t>description</t>
@@ -2040,6 +2037,12 @@
   </si>
   <si>
     <t>Protects physical prototypes which are classified as requiring protection. Prototypes include vehicles, components and parts. The owner of the intellectual property for the prototype is considered the owner of the prototype. The owner's commissioning department is responsible for classifying the protection need of a prototype. For prototypes classified as requiring high or very high protection, the minimum requirements for prototype protection must be applied.</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Trusted Information Security Assessment Exchange v6.0.3</t>
   </si>
 </sst>
 </file>
@@ -2386,7 +2389,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2439,56 +2442,46 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2497,10 +2490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2513,15 +2506,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2529,7 +2522,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2545,31 +2538,47 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2597,10 +2606,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -2609,10 +2618,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2623,7 +2632,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2631,10 +2640,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2642,61 +2651,61 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
         <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" t="s">
         <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" t="s">
         <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -2704,10 +2713,10 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2715,10 +2724,10 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
         <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2726,44 +2735,44 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
         <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2771,78 +2780,78 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
         <v>56</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" t="s">
         <v>61</v>
-      </c>
-      <c r="F16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2850,10 +2859,10 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2861,61 +2870,61 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
         <v>65</v>
-      </c>
-      <c r="D19" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2923,61 +2932,61 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
         <v>70</v>
-      </c>
-      <c r="D23" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2985,10 +2994,10 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
         <v>75</v>
-      </c>
-      <c r="D27" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2996,44 +3005,44 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
         <v>77</v>
-      </c>
-      <c r="D28" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="374.4" x14ac:dyDescent="0.3">
@@ -3041,10 +3050,10 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -3052,44 +3061,44 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
         <v>82</v>
-      </c>
-      <c r="D32" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -3097,10 +3106,10 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -3108,44 +3117,44 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s">
         <v>87</v>
-      </c>
-      <c r="D36" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -3153,61 +3162,61 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
         <v>91</v>
-      </c>
-      <c r="D39" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42">
         <v>4</v>
       </c>
       <c r="D42" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" t="s">
         <v>96</v>
-      </c>
-      <c r="F42" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -3215,10 +3224,10 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -3226,10 +3235,10 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" t="s">
         <v>99</v>
-      </c>
-      <c r="D44" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -3237,44 +3246,44 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" t="s">
         <v>101</v>
-      </c>
-      <c r="D45" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -3282,10 +3291,10 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" t="s">
         <v>105</v>
-      </c>
-      <c r="D48" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3293,61 +3302,61 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" t="s">
         <v>107</v>
-      </c>
-      <c r="D49" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52">
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -3355,61 +3364,61 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" t="s">
         <v>112</v>
-      </c>
-      <c r="D53" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B54">
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B55">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -3417,10 +3426,10 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" t="s">
         <v>117</v>
-      </c>
-      <c r="D57" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3428,61 +3437,61 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" t="s">
         <v>119</v>
-      </c>
-      <c r="D58" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B59">
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B60">
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -3490,95 +3499,95 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" t="s">
         <v>124</v>
-      </c>
-      <c r="D62" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B63">
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B64">
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B65">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B66">
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B67">
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3586,78 +3595,78 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" t="s">
         <v>131</v>
-      </c>
-      <c r="D68" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B70">
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B71">
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72">
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3665,10 +3674,10 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" t="s">
         <v>137</v>
-      </c>
-      <c r="D73" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3676,44 +3685,44 @@
         <v>2</v>
       </c>
       <c r="C74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" t="s">
         <v>139</v>
-      </c>
-      <c r="D74" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B75">
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3721,44 +3730,44 @@
         <v>2</v>
       </c>
       <c r="C77" t="s">
+        <v>142</v>
+      </c>
+      <c r="D77" t="s">
         <v>143</v>
-      </c>
-      <c r="D77" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3766,44 +3775,44 @@
         <v>2</v>
       </c>
       <c r="C80" t="s">
+        <v>146</v>
+      </c>
+      <c r="D80" t="s">
         <v>147</v>
-      </c>
-      <c r="D80" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B81">
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B82">
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3811,61 +3820,61 @@
         <v>2</v>
       </c>
       <c r="C83" t="s">
+        <v>150</v>
+      </c>
+      <c r="D83" t="s">
         <v>151</v>
-      </c>
-      <c r="D83" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B84">
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B86">
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3873,10 +3882,10 @@
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3884,10 +3893,10 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
+        <v>156</v>
+      </c>
+      <c r="D88" t="s">
         <v>157</v>
-      </c>
-      <c r="D88" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3895,61 +3904,61 @@
         <v>2</v>
       </c>
       <c r="C89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D89" t="s">
         <v>159</v>
-      </c>
-      <c r="D89" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B90">
         <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B91">
         <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B92">
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F92" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -3957,10 +3966,10 @@
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3968,24 +3977,24 @@
         <v>2</v>
       </c>
       <c r="C94" t="s">
+        <v>164</v>
+      </c>
+      <c r="D94" t="s">
         <v>165</v>
-      </c>
-      <c r="D94" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B95">
         <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3993,44 +4002,44 @@
         <v>2</v>
       </c>
       <c r="C96" t="s">
+        <v>166</v>
+      </c>
+      <c r="D96" t="s">
         <v>167</v>
-      </c>
-      <c r="D96" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B97">
         <v>3</v>
       </c>
       <c r="D97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B98">
         <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F98" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
@@ -4038,10 +4047,10 @@
         <v>3</v>
       </c>
       <c r="D99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -4049,61 +4058,61 @@
         <v>2</v>
       </c>
       <c r="C100" t="s">
+        <v>171</v>
+      </c>
+      <c r="D100" t="s">
         <v>172</v>
-      </c>
-      <c r="D100" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B101">
         <v>3</v>
       </c>
       <c r="D101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B102">
         <v>3</v>
       </c>
       <c r="D102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B103">
         <v>3</v>
       </c>
       <c r="D103" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F103" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -4111,10 +4120,10 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
+        <v>176</v>
+      </c>
+      <c r="D104" t="s">
         <v>177</v>
-      </c>
-      <c r="D104" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -4122,10 +4131,10 @@
         <v>2</v>
       </c>
       <c r="C105" t="s">
+        <v>178</v>
+      </c>
+      <c r="D105" t="s">
         <v>179</v>
-      </c>
-      <c r="D105" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -4133,61 +4142,61 @@
         <v>3</v>
       </c>
       <c r="C106" t="s">
+        <v>180</v>
+      </c>
+      <c r="D106" t="s">
         <v>181</v>
-      </c>
-      <c r="D106" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B107">
         <v>4</v>
       </c>
       <c r="D107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B108">
         <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B109">
         <v>4</v>
       </c>
       <c r="D109" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -4195,78 +4204,78 @@
         <v>3</v>
       </c>
       <c r="C110" t="s">
+        <v>185</v>
+      </c>
+      <c r="D110" t="s">
         <v>186</v>
-      </c>
-      <c r="D110" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B111">
         <v>4</v>
       </c>
       <c r="D111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B112">
         <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B113">
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F113" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B114">
         <v>4</v>
       </c>
       <c r="D114" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -4274,44 +4283,44 @@
         <v>3</v>
       </c>
       <c r="C115" t="s">
+        <v>191</v>
+      </c>
+      <c r="D115" t="s">
         <v>192</v>
-      </c>
-      <c r="D115" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B116">
         <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B117">
         <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -4319,10 +4328,10 @@
         <v>2</v>
       </c>
       <c r="C118" t="s">
+        <v>195</v>
+      </c>
+      <c r="D118" t="s">
         <v>196</v>
-      </c>
-      <c r="D118" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -4330,78 +4339,78 @@
         <v>3</v>
       </c>
       <c r="C119" t="s">
+        <v>197</v>
+      </c>
+      <c r="D119" t="s">
         <v>198</v>
-      </c>
-      <c r="D119" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B120">
         <v>4</v>
       </c>
       <c r="D120" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B121">
         <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B122">
         <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F122" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B123">
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F123" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4409,10 +4418,10 @@
         <v>4</v>
       </c>
       <c r="D124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -4420,10 +4429,10 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D125" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -4431,10 +4440,10 @@
         <v>2</v>
       </c>
       <c r="C126" t="s">
+        <v>205</v>
+      </c>
+      <c r="D126" t="s">
         <v>206</v>
-      </c>
-      <c r="D126" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4442,61 +4451,61 @@
         <v>3</v>
       </c>
       <c r="C127" t="s">
+        <v>207</v>
+      </c>
+      <c r="D127" t="s">
         <v>208</v>
-      </c>
-      <c r="D127" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B128">
         <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B129">
         <v>4</v>
       </c>
       <c r="D129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B130">
         <v>4</v>
       </c>
       <c r="D130" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F130" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -4504,78 +4513,78 @@
         <v>3</v>
       </c>
       <c r="C131" t="s">
+        <v>212</v>
+      </c>
+      <c r="D131" t="s">
         <v>213</v>
-      </c>
-      <c r="D131" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B132">
         <v>4</v>
       </c>
       <c r="D132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B133">
         <v>4</v>
       </c>
       <c r="D133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B134">
         <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B135">
         <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F135" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -4583,10 +4592,10 @@
         <v>2</v>
       </c>
       <c r="C136" t="s">
+        <v>218</v>
+      </c>
+      <c r="D136" t="s">
         <v>219</v>
-      </c>
-      <c r="D136" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4594,61 +4603,61 @@
         <v>3</v>
       </c>
       <c r="C137" t="s">
+        <v>220</v>
+      </c>
+      <c r="D137" t="s">
         <v>221</v>
-      </c>
-      <c r="D137" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B138">
         <v>4</v>
       </c>
       <c r="D138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B139">
         <v>4</v>
       </c>
       <c r="D139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B140">
         <v>4</v>
       </c>
       <c r="D140" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F140" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -4656,44 +4665,44 @@
         <v>3</v>
       </c>
       <c r="C141" t="s">
+        <v>225</v>
+      </c>
+      <c r="D141" t="s">
         <v>226</v>
-      </c>
-      <c r="D141" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B142">
         <v>4</v>
       </c>
       <c r="D142" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B143">
         <v>4</v>
       </c>
       <c r="D143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -4701,44 +4710,44 @@
         <v>3</v>
       </c>
       <c r="C144" t="s">
+        <v>229</v>
+      </c>
+      <c r="D144" t="s">
         <v>230</v>
-      </c>
-      <c r="D144" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B145">
         <v>4</v>
       </c>
       <c r="D145" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B146">
         <v>4</v>
       </c>
       <c r="D146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4746,78 +4755,78 @@
         <v>3</v>
       </c>
       <c r="C147" t="s">
+        <v>233</v>
+      </c>
+      <c r="D147" t="s">
         <v>234</v>
-      </c>
-      <c r="D147" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B148">
         <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B149">
         <v>4</v>
       </c>
       <c r="D149" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B150">
         <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F150" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B151">
         <v>4</v>
       </c>
       <c r="D151" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F151" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -4825,44 +4834,44 @@
         <v>3</v>
       </c>
       <c r="C152" t="s">
+        <v>239</v>
+      </c>
+      <c r="D152" t="s">
         <v>240</v>
-      </c>
-      <c r="D152" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B153">
         <v>4</v>
       </c>
       <c r="D153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B154">
         <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="374.4" x14ac:dyDescent="0.3">
@@ -4870,10 +4879,10 @@
         <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -4881,78 +4890,78 @@
         <v>3</v>
       </c>
       <c r="C156" t="s">
+        <v>244</v>
+      </c>
+      <c r="D156" t="s">
         <v>245</v>
-      </c>
-      <c r="D156" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B157">
         <v>4</v>
       </c>
       <c r="D157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B158">
         <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F158" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B159">
         <v>4</v>
       </c>
       <c r="D159" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F159" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B160">
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F160" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -4960,61 +4969,61 @@
         <v>3</v>
       </c>
       <c r="C161" t="s">
+        <v>250</v>
+      </c>
+      <c r="D161" t="s">
         <v>251</v>
-      </c>
-      <c r="D161" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B162">
         <v>4</v>
       </c>
       <c r="D162" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B163">
         <v>4</v>
       </c>
       <c r="D163" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F163" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B164">
         <v>4</v>
       </c>
       <c r="D164" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F164" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -5022,78 +5031,78 @@
         <v>3</v>
       </c>
       <c r="C165" t="s">
+        <v>255</v>
+      </c>
+      <c r="D165" t="s">
         <v>256</v>
-      </c>
-      <c r="D165" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B166">
         <v>4</v>
       </c>
       <c r="D166" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B167">
         <v>4</v>
       </c>
       <c r="D167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F167" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B168">
         <v>4</v>
       </c>
       <c r="D168" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F168" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B169">
         <v>4</v>
       </c>
       <c r="D169" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F169" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -5101,78 +5110,78 @@
         <v>3</v>
       </c>
       <c r="C170" t="s">
+        <v>261</v>
+      </c>
+      <c r="D170" t="s">
         <v>262</v>
-      </c>
-      <c r="D170" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B171">
         <v>4</v>
       </c>
       <c r="D171" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B172">
         <v>4</v>
       </c>
       <c r="D172" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F172" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B173">
         <v>4</v>
       </c>
       <c r="D173" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F173" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B174">
         <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F174" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -5180,10 +5189,10 @@
         <v>2</v>
       </c>
       <c r="C175" t="s">
+        <v>267</v>
+      </c>
+      <c r="D175" t="s">
         <v>268</v>
-      </c>
-      <c r="D175" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -5191,61 +5200,61 @@
         <v>3</v>
       </c>
       <c r="C176" t="s">
+        <v>269</v>
+      </c>
+      <c r="D176" t="s">
         <v>270</v>
-      </c>
-      <c r="D176" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B177">
         <v>4</v>
       </c>
       <c r="D177" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B178">
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F178" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B179">
         <v>4</v>
       </c>
       <c r="D179" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F179" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -5253,61 +5262,61 @@
         <v>3</v>
       </c>
       <c r="C180" t="s">
+        <v>274</v>
+      </c>
+      <c r="D180" t="s">
         <v>275</v>
-      </c>
-      <c r="D180" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B181">
         <v>4</v>
       </c>
       <c r="D181" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B182">
         <v>4</v>
       </c>
       <c r="D182" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F182" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B183">
         <v>4</v>
       </c>
       <c r="D183" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F183" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -5315,44 +5324,44 @@
         <v>3</v>
       </c>
       <c r="C184" t="s">
+        <v>279</v>
+      </c>
+      <c r="D184" t="s">
         <v>280</v>
-      </c>
-      <c r="D184" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B185">
         <v>4</v>
       </c>
       <c r="D185" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F185" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B186">
         <v>4</v>
       </c>
       <c r="D186" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F186" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -5360,44 +5369,44 @@
         <v>3</v>
       </c>
       <c r="C187" t="s">
+        <v>283</v>
+      </c>
+      <c r="D187" t="s">
         <v>284</v>
-      </c>
-      <c r="D187" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B188">
         <v>4</v>
       </c>
       <c r="D188" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F188" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B189">
         <v>4</v>
       </c>
       <c r="D189" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F189" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -5405,10 +5414,10 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
+        <v>287</v>
+      </c>
+      <c r="D190" t="s">
         <v>288</v>
-      </c>
-      <c r="D190" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -5416,61 +5425,61 @@
         <v>2</v>
       </c>
       <c r="C191" t="s">
+        <v>289</v>
+      </c>
+      <c r="D191" t="s">
         <v>290</v>
-      </c>
-      <c r="D191" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B192">
         <v>3</v>
       </c>
       <c r="D192" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F192" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B193">
         <v>3</v>
       </c>
       <c r="D193" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F193" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B194">
         <v>3</v>
       </c>
       <c r="D194" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F194" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="403.2" x14ac:dyDescent="0.3">
@@ -5478,10 +5487,10 @@
         <v>3</v>
       </c>
       <c r="D195" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -5489,44 +5498,44 @@
         <v>2</v>
       </c>
       <c r="C196" t="s">
+        <v>295</v>
+      </c>
+      <c r="D196" t="s">
         <v>296</v>
-      </c>
-      <c r="D196" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B197">
         <v>3</v>
       </c>
       <c r="D197" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B198">
         <v>3</v>
       </c>
       <c r="D198" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -5534,10 +5543,10 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
+        <v>299</v>
+      </c>
+      <c r="D199" t="s">
         <v>300</v>
-      </c>
-      <c r="D199" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -5545,44 +5554,44 @@
         <v>2</v>
       </c>
       <c r="C200" t="s">
+        <v>301</v>
+      </c>
+      <c r="D200" t="s">
         <v>302</v>
-      </c>
-      <c r="D200" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B201">
         <v>3</v>
       </c>
       <c r="D201" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B202">
         <v>3</v>
       </c>
       <c r="D202" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F202" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -5590,10 +5599,10 @@
         <v>3</v>
       </c>
       <c r="D203" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -5601,27 +5610,27 @@
         <v>2</v>
       </c>
       <c r="C204" t="s">
+        <v>306</v>
+      </c>
+      <c r="D204" t="s">
         <v>307</v>
-      </c>
-      <c r="D204" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B205">
         <v>3</v>
       </c>
       <c r="D205" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F205" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -5629,10 +5638,10 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
+        <v>309</v>
+      </c>
+      <c r="D206" t="s">
         <v>310</v>
-      </c>
-      <c r="D206" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -5640,10 +5649,10 @@
         <v>2</v>
       </c>
       <c r="C207" t="s">
+        <v>311</v>
+      </c>
+      <c r="D207" t="s">
         <v>312</v>
-      </c>
-      <c r="D207" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -5651,44 +5660,44 @@
         <v>3</v>
       </c>
       <c r="C208" t="s">
+        <v>313</v>
+      </c>
+      <c r="D208" t="s">
         <v>314</v>
-      </c>
-      <c r="D208" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B209">
         <v>4</v>
       </c>
       <c r="D209" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F209" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B210">
         <v>4</v>
       </c>
       <c r="D210" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F210" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -5696,44 +5705,44 @@
         <v>3</v>
       </c>
       <c r="C211" t="s">
+        <v>317</v>
+      </c>
+      <c r="D211" t="s">
         <v>318</v>
-      </c>
-      <c r="D211" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B212">
         <v>4</v>
       </c>
       <c r="D212" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F212" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B213">
         <v>4</v>
       </c>
       <c r="D213" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F213" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -5741,44 +5750,44 @@
         <v>3</v>
       </c>
       <c r="C214" t="s">
+        <v>321</v>
+      </c>
+      <c r="D214" t="s">
         <v>322</v>
-      </c>
-      <c r="D214" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B215">
         <v>4</v>
       </c>
       <c r="D215" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F215" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B216">
         <v>4</v>
       </c>
       <c r="D216" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F216" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -5786,61 +5795,61 @@
         <v>3</v>
       </c>
       <c r="C217" t="s">
+        <v>325</v>
+      </c>
+      <c r="D217" t="s">
         <v>326</v>
-      </c>
-      <c r="D217" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B218">
         <v>4</v>
       </c>
       <c r="D218" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F218" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B219">
         <v>4</v>
       </c>
       <c r="D219" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F219" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B220">
         <v>4</v>
       </c>
       <c r="D220" t="s">
+        <v>329</v>
+      </c>
+      <c r="E220" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E220" s="1" t="s">
+      <c r="F220" t="s">
         <v>331</v>
-      </c>
-      <c r="F220" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -5848,44 +5857,44 @@
         <v>3</v>
       </c>
       <c r="C221" t="s">
+        <v>332</v>
+      </c>
+      <c r="D221" t="s">
         <v>333</v>
-      </c>
-      <c r="D221" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B222">
         <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F222" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B223">
         <v>4</v>
       </c>
       <c r="D223" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F223" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -5893,27 +5902,27 @@
         <v>3</v>
       </c>
       <c r="C224" t="s">
+        <v>336</v>
+      </c>
+      <c r="D224" t="s">
         <v>337</v>
-      </c>
-      <c r="D224" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B225">
         <v>4</v>
       </c>
       <c r="D225" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F225" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -5921,27 +5930,27 @@
         <v>3</v>
       </c>
       <c r="C226" t="s">
+        <v>339</v>
+      </c>
+      <c r="D226" t="s">
         <v>340</v>
-      </c>
-      <c r="D226" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B227">
         <v>4</v>
       </c>
       <c r="D227" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F227" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -5949,44 +5958,44 @@
         <v>3</v>
       </c>
       <c r="C228" t="s">
+        <v>342</v>
+      </c>
+      <c r="D228" t="s">
         <v>343</v>
-      </c>
-      <c r="D228" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B229">
         <v>4</v>
       </c>
       <c r="D229" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F229" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B230">
         <v>4</v>
       </c>
       <c r="D230" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F230" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -5994,10 +6003,10 @@
         <v>2</v>
       </c>
       <c r="C231" t="s">
+        <v>346</v>
+      </c>
+      <c r="D231" t="s">
         <v>347</v>
-      </c>
-      <c r="D231" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -6005,27 +6014,27 @@
         <v>3</v>
       </c>
       <c r="C232" t="s">
+        <v>348</v>
+      </c>
+      <c r="D232" t="s">
         <v>349</v>
-      </c>
-      <c r="D232" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B233">
         <v>4</v>
       </c>
       <c r="D233" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F233" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -6033,27 +6042,27 @@
         <v>3</v>
       </c>
       <c r="C234" t="s">
+        <v>351</v>
+      </c>
+      <c r="D234" t="s">
         <v>352</v>
-      </c>
-      <c r="D234" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B235">
         <v>4</v>
       </c>
       <c r="D235" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F235" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -6061,27 +6070,27 @@
         <v>3</v>
       </c>
       <c r="C236" t="s">
+        <v>354</v>
+      </c>
+      <c r="D236" t="s">
         <v>355</v>
-      </c>
-      <c r="D236" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B237">
         <v>4</v>
       </c>
       <c r="D237" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F237" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -6089,27 +6098,27 @@
         <v>3</v>
       </c>
       <c r="C238" t="s">
+        <v>357</v>
+      </c>
+      <c r="D238" t="s">
         <v>358</v>
-      </c>
-      <c r="D238" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B239">
         <v>4</v>
       </c>
       <c r="D239" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F239" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -6117,27 +6126,27 @@
         <v>3</v>
       </c>
       <c r="C240" t="s">
+        <v>360</v>
+      </c>
+      <c r="D240" t="s">
         <v>361</v>
-      </c>
-      <c r="D240" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B241">
         <v>4</v>
       </c>
       <c r="D241" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F241" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -6145,27 +6154,27 @@
         <v>3</v>
       </c>
       <c r="C242" t="s">
+        <v>363</v>
+      </c>
+      <c r="D242" t="s">
         <v>364</v>
-      </c>
-      <c r="D242" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B243">
         <v>4</v>
       </c>
       <c r="D243" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F243" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -6173,27 +6182,27 @@
         <v>3</v>
       </c>
       <c r="C244" t="s">
+        <v>366</v>
+      </c>
+      <c r="D244" t="s">
         <v>367</v>
-      </c>
-      <c r="D244" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B245">
         <v>4</v>
       </c>
       <c r="D245" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F245" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -6201,10 +6210,10 @@
         <v>2</v>
       </c>
       <c r="C246" t="s">
+        <v>369</v>
+      </c>
+      <c r="D246" t="s">
         <v>370</v>
-      </c>
-      <c r="D246" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -6212,27 +6221,27 @@
         <v>3</v>
       </c>
       <c r="C247" t="s">
+        <v>371</v>
+      </c>
+      <c r="D247" t="s">
         <v>372</v>
-      </c>
-      <c r="D247" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B248">
         <v>4</v>
       </c>
       <c r="D248" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F248" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -6240,27 +6249,27 @@
         <v>3</v>
       </c>
       <c r="C249" t="s">
+        <v>374</v>
+      </c>
+      <c r="D249" t="s">
         <v>375</v>
-      </c>
-      <c r="D249" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B250">
         <v>4</v>
       </c>
       <c r="D250" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F250" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -6268,10 +6277,10 @@
         <v>2</v>
       </c>
       <c r="C251" t="s">
+        <v>377</v>
+      </c>
+      <c r="D251" t="s">
         <v>378</v>
-      </c>
-      <c r="D251" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -6279,27 +6288,27 @@
         <v>3</v>
       </c>
       <c r="C252" t="s">
+        <v>379</v>
+      </c>
+      <c r="D252" t="s">
         <v>380</v>
-      </c>
-      <c r="D252" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B253">
         <v>4</v>
       </c>
       <c r="D253" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F253" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -6307,27 +6316,27 @@
         <v>3</v>
       </c>
       <c r="C254" t="s">
+        <v>382</v>
+      </c>
+      <c r="D254" t="s">
         <v>383</v>
-      </c>
-      <c r="D254" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B255">
         <v>4</v>
       </c>
       <c r="D255" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F255" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -6335,27 +6344,27 @@
         <v>3</v>
       </c>
       <c r="C256" t="s">
+        <v>385</v>
+      </c>
+      <c r="D256" t="s">
         <v>386</v>
-      </c>
-      <c r="D256" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B257">
         <v>4</v>
       </c>
       <c r="D257" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F257" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -6363,10 +6372,10 @@
         <v>2</v>
       </c>
       <c r="C258" t="s">
+        <v>388</v>
+      </c>
+      <c r="D258" t="s">
         <v>389</v>
-      </c>
-      <c r="D258" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -6374,27 +6383,27 @@
         <v>3</v>
       </c>
       <c r="C259" t="s">
+        <v>390</v>
+      </c>
+      <c r="D259" t="s">
         <v>391</v>
-      </c>
-      <c r="D259" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B260">
         <v>4</v>
       </c>
       <c r="D260" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F260" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -6402,27 +6411,27 @@
         <v>3</v>
       </c>
       <c r="C261" t="s">
+        <v>393</v>
+      </c>
+      <c r="D261" t="s">
         <v>394</v>
-      </c>
-      <c r="D261" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B262">
         <v>4</v>
       </c>
       <c r="D262" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F262" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -6430,10 +6439,10 @@
         <v>1</v>
       </c>
       <c r="C263" t="s">
+        <v>396</v>
+      </c>
+      <c r="D263" t="s">
         <v>397</v>
-      </c>
-      <c r="D263" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -6441,10 +6450,10 @@
         <v>2</v>
       </c>
       <c r="C264" t="s">
+        <v>398</v>
+      </c>
+      <c r="D264" t="s">
         <v>399</v>
-      </c>
-      <c r="D264" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -6452,27 +6461,27 @@
         <v>3</v>
       </c>
       <c r="C265" t="s">
+        <v>400</v>
+      </c>
+      <c r="D265" t="s">
         <v>401</v>
-      </c>
-      <c r="D265" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B266">
         <v>4</v>
       </c>
       <c r="D266" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F266" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -6480,10 +6489,10 @@
         <v>2</v>
       </c>
       <c r="C267" t="s">
+        <v>403</v>
+      </c>
+      <c r="D267" t="s">
         <v>404</v>
-      </c>
-      <c r="D267" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -6491,27 +6500,27 @@
         <v>3</v>
       </c>
       <c r="C268" t="s">
+        <v>405</v>
+      </c>
+      <c r="D268" t="s">
         <v>406</v>
-      </c>
-      <c r="D268" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B269">
         <v>4</v>
       </c>
       <c r="D269" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F269" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -6519,10 +6528,10 @@
         <v>2</v>
       </c>
       <c r="C270" t="s">
+        <v>408</v>
+      </c>
+      <c r="D270" t="s">
         <v>409</v>
-      </c>
-      <c r="D270" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -6530,27 +6539,27 @@
         <v>3</v>
       </c>
       <c r="C271" t="s">
+        <v>410</v>
+      </c>
+      <c r="D271" t="s">
         <v>411</v>
-      </c>
-      <c r="D271" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B272">
         <v>4</v>
       </c>
       <c r="D272" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F272" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -6558,10 +6567,10 @@
         <v>2</v>
       </c>
       <c r="C273" t="s">
+        <v>413</v>
+      </c>
+      <c r="D273" t="s">
         <v>414</v>
-      </c>
-      <c r="D273" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -6569,27 +6578,27 @@
         <v>3</v>
       </c>
       <c r="C274" t="s">
+        <v>415</v>
+      </c>
+      <c r="D274" t="s">
         <v>416</v>
-      </c>
-      <c r="D274" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B275">
         <v>4</v>
       </c>
       <c r="D275" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F275" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -6597,10 +6606,10 @@
         <v>2</v>
       </c>
       <c r="C276" t="s">
+        <v>418</v>
+      </c>
+      <c r="D276" t="s">
         <v>419</v>
-      </c>
-      <c r="D276" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -6608,27 +6617,27 @@
         <v>3</v>
       </c>
       <c r="C277" t="s">
+        <v>420</v>
+      </c>
+      <c r="D277" t="s">
         <v>421</v>
-      </c>
-      <c r="D277" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B278">
         <v>4</v>
       </c>
       <c r="D278" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F278" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -6636,27 +6645,27 @@
         <v>3</v>
       </c>
       <c r="C279" t="s">
+        <v>423</v>
+      </c>
+      <c r="D279" t="s">
         <v>424</v>
-      </c>
-      <c r="D279" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B280">
         <v>4</v>
       </c>
       <c r="D280" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F280" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -6664,27 +6673,27 @@
         <v>3</v>
       </c>
       <c r="C281" t="s">
+        <v>426</v>
+      </c>
+      <c r="D281" t="s">
         <v>427</v>
-      </c>
-      <c r="D281" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B282">
         <v>4</v>
       </c>
       <c r="D282" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F282" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -6692,10 +6701,10 @@
         <v>2</v>
       </c>
       <c r="C283" t="s">
+        <v>429</v>
+      </c>
+      <c r="D283" t="s">
         <v>430</v>
-      </c>
-      <c r="D283" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -6703,27 +6712,27 @@
         <v>3</v>
       </c>
       <c r="C284" t="s">
+        <v>431</v>
+      </c>
+      <c r="D284" t="s">
         <v>432</v>
-      </c>
-      <c r="D284" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B285">
         <v>4</v>
       </c>
       <c r="D285" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F285" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -6731,27 +6740,27 @@
         <v>3</v>
       </c>
       <c r="C286" t="s">
+        <v>434</v>
+      </c>
+      <c r="D286" t="s">
         <v>435</v>
-      </c>
-      <c r="D286" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B287">
         <v>4</v>
       </c>
       <c r="D287" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F287" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -6759,10 +6768,10 @@
         <v>2</v>
       </c>
       <c r="C288" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D288" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -6770,27 +6779,27 @@
         <v>3</v>
       </c>
       <c r="C289" t="s">
+        <v>438</v>
+      </c>
+      <c r="D289" t="s">
         <v>439</v>
-      </c>
-      <c r="D289" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B290">
         <v>4</v>
       </c>
       <c r="D290" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F290" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -6798,27 +6807,27 @@
         <v>3</v>
       </c>
       <c r="C291" t="s">
+        <v>441</v>
+      </c>
+      <c r="D291" t="s">
         <v>442</v>
-      </c>
-      <c r="D291" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B292">
         <v>4</v>
       </c>
       <c r="D292" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F292" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -6826,10 +6835,10 @@
         <v>2</v>
       </c>
       <c r="C293" t="s">
+        <v>444</v>
+      </c>
+      <c r="D293" t="s">
         <v>445</v>
-      </c>
-      <c r="D293" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
@@ -6837,27 +6846,27 @@
         <v>3</v>
       </c>
       <c r="C294" t="s">
+        <v>446</v>
+      </c>
+      <c r="D294" t="s">
         <v>447</v>
-      </c>
-      <c r="D294" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B295">
         <v>4</v>
       </c>
       <c r="D295" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F295" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -6878,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6886,7 +6895,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -6911,13 +6920,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6925,10 +6934,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6936,10 +6945,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -6947,10 +6956,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -6958,10 +6967,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -6969,10 +6978,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6980,10 +6989,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -7004,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7012,7 +7021,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -7042,73 +7051,73 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>474</v>
       </c>
     </row>
   </sheetData>
